--- a/docs/grading.xlsx
+++ b/docs/grading.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="77">
   <si>
     <t xml:space="preserve">Sprint #1 grading rules</t>
   </si>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t xml:space="preserve">Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+</t>
   </si>
   <si>
     <t xml:space="preserve">Code specifying the product increment is marked in the repository (tag = version number) and by the appropriate version in pom.xml</t>
@@ -784,7 +781,7 @@
   <dimension ref="A1:Z1007"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2:H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -837,10 +834,7 @@
         <f aca="false">SUM(G$5:G$29)</f>
         <v>400</v>
       </c>
-      <c r="H2" s="6" t="n">
-        <f aca="false">SUMIFS(G$5:G$29,H$5:H$29,"=+")</f>
-        <v>330</v>
-      </c>
+      <c r="H2" s="6"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -938,9 +932,7 @@
       <c r="G5" s="12" t="n">
         <v>20</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="H5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
@@ -964,7 +956,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -999,7 +991,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -1010,9 +1002,7 @@
       <c r="G7" s="12" t="n">
         <v>30</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="H7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -1036,7 +1026,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -1065,10 +1055,10 @@
     <row r="9" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="10"/>
       <c r="B9" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
@@ -1078,9 +1068,7 @@
       <c r="G9" s="12" t="n">
         <v>30</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="H9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
@@ -1104,7 +1092,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
@@ -1133,10 +1121,10 @@
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10"/>
       <c r="B11" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
@@ -1146,9 +1134,7 @@
       <c r="G11" s="12" t="n">
         <v>10</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="H11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
@@ -1170,10 +1156,10 @@
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10"/>
       <c r="B12" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
@@ -1205,10 +1191,10 @@
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10"/>
       <c r="B13" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
@@ -1240,7 +1226,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
@@ -1251,9 +1237,7 @@
       <c r="G14" s="12" t="n">
         <v>20</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="H14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -1277,7 +1261,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="20"/>
       <c r="D15" s="20"/>
@@ -1306,10 +1290,10 @@
     <row r="16" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="19"/>
       <c r="B16" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
@@ -1341,7 +1325,7 @@
         <v>8</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="20"/>
@@ -1370,10 +1354,10 @@
     <row r="18" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="19"/>
       <c r="B18" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" s="25"/>
       <c r="E18" s="25"/>
@@ -1381,9 +1365,7 @@
       <c r="G18" s="24" t="n">
         <v>40</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="H18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
@@ -1407,7 +1389,7 @@
         <v>9</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" s="26"/>
       <c r="D19" s="26"/>
@@ -1436,10 +1418,10 @@
     <row r="20" customFormat="false" ht="64" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="19"/>
       <c r="B20" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
@@ -1449,9 +1431,7 @@
       <c r="G20" s="24" t="n">
         <v>40</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="H20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
@@ -1472,7 +1452,7 @@
     </row>
     <row r="21" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" s="28"/>
       <c r="C21" s="28"/>
@@ -1504,7 +1484,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C22" s="30"/>
       <c r="D22" s="30"/>
@@ -1533,10 +1513,10 @@
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="29"/>
       <c r="B23" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D23" s="29"/>
       <c r="E23" s="29"/>
@@ -1544,9 +1524,7 @@
       <c r="G23" s="31" t="n">
         <v>20</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="H23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
@@ -1570,7 +1548,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24" s="30"/>
       <c r="D24" s="30"/>
@@ -1599,10 +1577,10 @@
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="29"/>
       <c r="B25" s="32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D25" s="29"/>
       <c r="E25" s="29"/>
@@ -1610,9 +1588,7 @@
       <c r="G25" s="31" t="n">
         <v>10</v>
       </c>
-      <c r="H25" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="H25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
@@ -1634,10 +1610,10 @@
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="29"/>
       <c r="B26" s="32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C26" s="33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
@@ -1645,9 +1621,7 @@
       <c r="G26" s="31" t="n">
         <v>30</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="H26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
@@ -1668,7 +1642,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27" s="35"/>
       <c r="C27" s="35"/>
@@ -1700,7 +1674,7 @@
         <v>1</v>
       </c>
       <c r="B28" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C28" s="36"/>
       <c r="D28" s="36"/>
@@ -1709,9 +1683,7 @@
       <c r="G28" s="35" t="n">
         <v>50</v>
       </c>
-      <c r="H28" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="H28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
@@ -1735,7 +1707,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C29" s="36"/>
       <c r="D29" s="36"/>
@@ -1744,9 +1716,7 @@
       <c r="G29" s="35" t="n">
         <v>30</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="H29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
@@ -1767,7 +1737,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30" s="38"/>
       <c r="C30" s="38"/>
@@ -29169,7 +29139,7 @@
   <dimension ref="A1:Z1018"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B35" activeCellId="0" sqref="B35"/>
+      <selection pane="topLeft" activeCell="G15" activeCellId="1" sqref="H2:H29 G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -29181,7 +29151,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -29211,7 +29181,7 @@
     </row>
     <row r="2" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
@@ -29288,7 +29258,7 @@
         <v>3</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -29383,7 +29353,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -29421,7 +29391,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -29459,7 +29429,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -29489,10 +29459,10 @@
     <row r="10" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="10"/>
       <c r="B10" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
@@ -29529,7 +29499,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -29559,10 +29529,10 @@
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10"/>
       <c r="B12" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
@@ -29597,10 +29567,10 @@
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10"/>
       <c r="B13" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
@@ -29635,10 +29605,10 @@
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="10"/>
       <c r="B14" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -29671,10 +29641,10 @@
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10"/>
       <c r="B15" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
@@ -29709,7 +29679,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
@@ -29747,7 +29717,7 @@
         <v>7</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="20"/>
@@ -29777,10 +29747,10 @@
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="19"/>
       <c r="B18" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
@@ -29815,7 +29785,7 @@
         <v>8</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" s="20"/>
       <c r="D19" s="20"/>
@@ -29845,10 +29815,10 @@
     <row r="20" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="19"/>
       <c r="B20" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" s="25"/>
       <c r="E20" s="25"/>
@@ -29881,10 +29851,10 @@
     <row r="21" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="19"/>
       <c r="B21" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D21" s="25"/>
       <c r="E21" s="25"/>
@@ -29917,7 +29887,7 @@
         <v>9</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" s="26"/>
       <c r="D22" s="26"/>
@@ -29929,10 +29899,10 @@
     <row r="23" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="19"/>
       <c r="B23" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D23" s="27"/>
       <c r="E23" s="27"/>
@@ -29951,7 +29921,7 @@
         <v>10</v>
       </c>
       <c r="B24" s="43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C24" s="43"/>
       <c r="D24" s="43"/>
@@ -29963,10 +29933,10 @@
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="42"/>
       <c r="B25" s="44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C25" s="45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D25" s="42"/>
       <c r="E25" s="46"/>
@@ -29983,10 +29953,10 @@
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="42"/>
       <c r="B26" s="44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C26" s="41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D26" s="42"/>
       <c r="E26" s="42"/>
@@ -30001,10 +29971,10 @@
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="42"/>
       <c r="B27" s="44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C27" s="41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D27" s="42"/>
       <c r="E27" s="42"/>
@@ -30037,10 +30007,10 @@
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="42"/>
       <c r="B28" s="44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C28" s="41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D28" s="42"/>
       <c r="E28" s="42"/>
@@ -30071,10 +30041,10 @@
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="48"/>
       <c r="B29" s="44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C29" s="45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D29" s="48"/>
       <c r="E29" s="48"/>
@@ -30109,10 +30079,10 @@
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="48"/>
       <c r="B30" s="44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C30" s="41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D30" s="48"/>
       <c r="E30" s="48"/>
@@ -30145,10 +30115,10 @@
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="48"/>
       <c r="B31" s="44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C31" s="41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D31" s="48"/>
       <c r="E31" s="48"/>
@@ -30181,10 +30151,10 @@
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="48"/>
       <c r="B32" s="44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C32" s="41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D32" s="48"/>
       <c r="E32" s="48"/>
@@ -30242,7 +30212,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B34" s="28"/>
       <c r="C34" s="28"/>
@@ -30275,7 +30245,7 @@
         <v>1</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C35" s="30"/>
       <c r="D35" s="30"/>
@@ -30305,10 +30275,10 @@
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="29"/>
       <c r="B36" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C36" s="33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D36" s="29"/>
       <c r="E36" s="29"/>
@@ -30341,10 +30311,10 @@
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="29"/>
       <c r="B37" s="32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C37" s="33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D37" s="29"/>
       <c r="E37" s="29"/>
@@ -30379,7 +30349,7 @@
         <v>2</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C38" s="30"/>
       <c r="D38" s="30"/>
@@ -30409,10 +30379,10 @@
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="29"/>
       <c r="B39" s="32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C39" s="33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D39" s="29"/>
       <c r="E39" s="29"/>
@@ -30445,10 +30415,10 @@
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="29"/>
       <c r="B40" s="32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C40" s="33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D40" s="29"/>
       <c r="E40" s="29"/>
@@ -30483,7 +30453,7 @@
         <v>3</v>
       </c>
       <c r="B41" s="52" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C41" s="52"/>
       <c r="D41" s="29"/>
@@ -30513,10 +30483,10 @@
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="52"/>
       <c r="B42" s="53" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C42" s="52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D42" s="29"/>
       <c r="E42" s="29"/>
@@ -30549,10 +30519,10 @@
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="52"/>
       <c r="B43" s="53" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C43" s="52" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D43" s="29"/>
       <c r="E43" s="29"/>
@@ -30612,7 +30582,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B45" s="54"/>
       <c r="C45" s="54"/>
@@ -30645,7 +30615,7 @@
         <v>1</v>
       </c>
       <c r="B46" s="56" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C46" s="36"/>
       <c r="D46" s="36"/>
@@ -30681,7 +30651,7 @@
         <v>2</v>
       </c>
       <c r="B47" s="56" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C47" s="36"/>
       <c r="D47" s="36"/>
@@ -30717,7 +30687,7 @@
         <v>3</v>
       </c>
       <c r="B48" s="56" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C48" s="36"/>
       <c r="D48" s="36"/>
@@ -30776,7 +30746,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B50" s="38"/>
       <c r="C50" s="38"/>
@@ -30806,7 +30776,7 @@
     </row>
     <row r="51" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B51" s="39"/>
       <c r="C51" s="39"/>

--- a/docs/grading.xlsx
+++ b/docs/grading.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint #1" sheetId="1" state="visible" r:id="rId2"/>
@@ -262,7 +262,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -356,46 +356,32 @@
       <charset val="238"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF434343"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF434343"/>
+      <color rgb="FF00A933"/>
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
@@ -467,7 +453,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="67">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -624,35 +610,47 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -660,44 +658,68 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -760,13 +782,13 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF00A933"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF434343"/>
+      <rgbColor rgb="FF333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -780,8 +802,8 @@
   </sheetPr>
   <dimension ref="A1:Z1007"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2:H29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -29138,8 +29160,8 @@
   </sheetPr>
   <dimension ref="A1:Z1018"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G15" activeCellId="1" sqref="H2:H29 G15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G43" activeCellId="0" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -29150,16 +29172,16 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="40"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
@@ -29180,16 +29202,16 @@
       <c r="Z1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="3"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="40"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -29210,19 +29232,19 @@
       <c r="Z2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="5" t="s">
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="6" t="n">
+      <c r="G3" s="44" t="n">
         <f aca="false">SUM(G6:G49)</f>
         <v>400</v>
       </c>
-      <c r="H3" s="6" t="n">
+      <c r="H3" s="44" t="n">
         <f aca="false">SUM(H6:H49)</f>
         <v>500</v>
       </c>
@@ -29246,18 +29268,18 @@
       <c r="Z3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="7" t="s">
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="46" t="s">
         <v>44</v>
       </c>
       <c r="I4" s="3"/>
@@ -29280,16 +29302,16 @@
       <c r="Z4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="12"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="24"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -29310,23 +29332,23 @@
       <c r="Z5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="n">
+      <c r="A6" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="B6" s="9" t="str">
+      <c r="B6" s="48" t="str">
         <f aca="false">'Sprint #1'!B5:E5</f>
         <v>The code is under the control of the version control system (Github) and the Teacher has access to it</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="11" t="s">
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="40" t="n">
+      <c r="G6" s="24" t="n">
         <v>10</v>
       </c>
-      <c r="H6" s="40" t="n">
+      <c r="H6" s="24" t="n">
         <v>10</v>
       </c>
       <c r="I6" s="3"/>
@@ -29349,22 +29371,22 @@
       <c r="Z6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="n">
+      <c r="A7" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="11" t="s">
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="40" t="n">
+      <c r="G7" s="24" t="n">
         <v>10</v>
       </c>
-      <c r="H7" s="40" t="n">
+      <c r="H7" s="24" t="n">
         <v>10</v>
       </c>
       <c r="I7" s="3"/>
@@ -29387,22 +29409,22 @@
       <c r="Z7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="n">
+      <c r="A8" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="11" t="s">
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="40" t="n">
+      <c r="G8" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="H8" s="40" t="n">
+      <c r="H8" s="24" t="n">
         <v>5</v>
       </c>
       <c r="I8" s="3"/>
@@ -29425,18 +29447,18 @@
       <c r="Z8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="n">
+      <c r="A9" s="19" t="n">
         <v>4</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -29457,22 +29479,22 @@
       <c r="Z9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10"/>
-      <c r="B10" s="14" t="s">
+      <c r="A10" s="19"/>
+      <c r="B10" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="11" t="s">
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="40" t="n">
+      <c r="G10" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="H10" s="40" t="n">
+      <c r="H10" s="24" t="n">
         <v>5</v>
       </c>
       <c r="I10" s="3"/>
@@ -29495,18 +29517,18 @@
       <c r="Z10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="n">
+      <c r="A11" s="19" t="n">
         <v>5</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -29527,22 +29549,22 @@
       <c r="Z11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10"/>
-      <c r="B12" s="14" t="s">
+      <c r="A12" s="19"/>
+      <c r="B12" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="11" t="s">
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="40" t="n">
+      <c r="G12" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="H12" s="40" t="n">
+      <c r="H12" s="24" t="n">
         <v>5</v>
       </c>
       <c r="I12" s="3"/>
@@ -29565,22 +29587,22 @@
       <c r="Z12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10"/>
-      <c r="B13" s="14" t="s">
+      <c r="A13" s="19"/>
+      <c r="B13" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="11" t="s">
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="40" t="n">
+      <c r="G13" s="24" t="n">
         <v>10</v>
       </c>
-      <c r="H13" s="40" t="n">
+      <c r="H13" s="24" t="n">
         <v>10</v>
       </c>
       <c r="I13" s="3"/>
@@ -29603,20 +29625,20 @@
       <c r="Z13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10"/>
-      <c r="B14" s="14" t="s">
+      <c r="A14" s="19"/>
+      <c r="B14" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="40" t="n">
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="50" t="n">
         <v>10</v>
       </c>
-      <c r="H14" s="40" t="n">
+      <c r="H14" s="24" t="n">
         <v>10</v>
       </c>
       <c r="I14" s="3"/>
@@ -29639,20 +29661,20 @@
       <c r="Z14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10"/>
-      <c r="B15" s="14" t="s">
+      <c r="A15" s="19"/>
+      <c r="B15" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="40" t="n">
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="50" t="n">
         <v>5</v>
       </c>
-      <c r="H15" s="40" t="n">
+      <c r="H15" s="24" t="n">
         <v>5</v>
       </c>
       <c r="I15" s="3"/>
@@ -29675,22 +29697,22 @@
       <c r="Z15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10" t="n">
+      <c r="A16" s="19" t="n">
         <v>6</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="11" t="s">
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="40" t="n">
+      <c r="G16" s="24" t="n">
         <v>10</v>
       </c>
-      <c r="H16" s="40" t="n">
+      <c r="H16" s="24" t="n">
         <v>10</v>
       </c>
       <c r="I16" s="3"/>
@@ -29722,9 +29744,9 @@
       <c r="C17" s="20"/>
       <c r="D17" s="20"/>
       <c r="E17" s="20"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -29754,11 +29776,11 @@
       </c>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="40" t="n">
+      <c r="F18" s="23"/>
+      <c r="G18" s="24" t="n">
         <v>0</v>
       </c>
-      <c r="H18" s="40" t="n">
+      <c r="H18" s="24" t="n">
         <v>0</v>
       </c>
       <c r="I18" s="3"/>
@@ -29791,8 +29813,8 @@
       <c r="D19" s="20"/>
       <c r="E19" s="20"/>
       <c r="F19" s="23"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -29823,10 +29845,10 @@
       <c r="D20" s="25"/>
       <c r="E20" s="25"/>
       <c r="F20" s="23"/>
-      <c r="G20" s="40" t="n">
+      <c r="G20" s="24" t="n">
         <v>10</v>
       </c>
-      <c r="H20" s="40" t="n">
+      <c r="H20" s="24" t="n">
         <v>10</v>
       </c>
       <c r="I20" s="3"/>
@@ -29859,8 +29881,8 @@
       <c r="D21" s="25"/>
       <c r="E21" s="25"/>
       <c r="F21" s="23"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40" t="n">
+      <c r="G21" s="24"/>
+      <c r="H21" s="24" t="n">
         <v>5</v>
       </c>
       <c r="I21" s="3"/>
@@ -29893,8 +29915,8 @@
       <c r="D22" s="26"/>
       <c r="E22" s="26"/>
       <c r="F22" s="23"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
     </row>
     <row r="23" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="19"/>
@@ -29906,83 +29928,83 @@
       </c>
       <c r="D23" s="27"/>
       <c r="E23" s="27"/>
-      <c r="F23" s="11" t="s">
+      <c r="F23" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G23" s="40" t="n">
+      <c r="G23" s="24" t="n">
         <v>10</v>
       </c>
-      <c r="H23" s="40" t="n">
+      <c r="H23" s="24" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="42" t="n">
+      <c r="A24" s="19" t="n">
         <v>10</v>
       </c>
-      <c r="B24" s="43" t="s">
+      <c r="B24" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="42"/>
-      <c r="B25" s="44" t="s">
+      <c r="A25" s="19"/>
+      <c r="B25" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="45" t="s">
+      <c r="C25" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="42"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="47" t="s">
+      <c r="D25" s="19"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G25" s="12" t="n">
+      <c r="G25" s="50" t="n">
         <v>40</v>
       </c>
-      <c r="H25" s="12" t="n">
+      <c r="H25" s="24" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="42"/>
-      <c r="B26" s="44" t="s">
+      <c r="A26" s="19"/>
+      <c r="B26" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="41" t="s">
+      <c r="C26" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="12" t="n">
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="50" t="n">
         <v>30</v>
       </c>
-      <c r="H26" s="12" t="n">
+      <c r="H26" s="24" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="42"/>
-      <c r="B27" s="44" t="s">
+      <c r="A27" s="19"/>
+      <c r="B27" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="41" t="s">
+      <c r="C27" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="12" t="n">
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="50" t="n">
         <v>20</v>
       </c>
-      <c r="H27" s="12" t="n">
+      <c r="H27" s="24" t="n">
         <v>20</v>
       </c>
       <c r="I27" s="3"/>
@@ -30005,18 +30027,18 @@
       <c r="Z27" s="3"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="42"/>
-      <c r="B28" s="44" t="s">
+      <c r="A28" s="19"/>
+      <c r="B28" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="41" t="s">
+      <c r="C28" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12" t="n">
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="24" t="n">
         <v>30</v>
       </c>
       <c r="I28" s="3"/>
@@ -30039,22 +30061,22 @@
       <c r="Z28" s="3"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="48"/>
-      <c r="B29" s="44" t="s">
+      <c r="A29" s="19"/>
+      <c r="B29" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="45" t="s">
+      <c r="C29" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="47" t="s">
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G29" s="40" t="n">
+      <c r="G29" s="50" t="n">
         <v>40</v>
       </c>
-      <c r="H29" s="40" t="n">
+      <c r="H29" s="24" t="n">
         <v>40</v>
       </c>
       <c r="I29" s="3"/>
@@ -30077,20 +30099,20 @@
       <c r="Z29" s="3"/>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="48"/>
-      <c r="B30" s="44" t="s">
+      <c r="A30" s="19"/>
+      <c r="B30" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="41" t="s">
+      <c r="C30" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="40" t="n">
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="50" t="n">
         <v>30</v>
       </c>
-      <c r="H30" s="40" t="n">
+      <c r="H30" s="24" t="n">
         <v>30</v>
       </c>
       <c r="I30" s="3"/>
@@ -30113,20 +30135,20 @@
       <c r="Z30" s="3"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="48"/>
-      <c r="B31" s="44" t="s">
+      <c r="A31" s="19"/>
+      <c r="B31" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="41" t="s">
+      <c r="C31" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="40" t="n">
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="50" t="n">
         <v>20</v>
       </c>
-      <c r="H31" s="40" t="n">
+      <c r="H31" s="24" t="n">
         <v>20</v>
       </c>
       <c r="I31" s="3"/>
@@ -30149,18 +30171,18 @@
       <c r="Z31" s="3"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="48"/>
-      <c r="B32" s="44" t="s">
+      <c r="A32" s="19"/>
+      <c r="B32" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="41" t="s">
+      <c r="C32" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40" t="n">
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24" t="n">
         <v>30</v>
       </c>
       <c r="I32" s="3"/>
@@ -30183,14 +30205,14 @@
       <c r="Z32" s="3"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="50"/>
-      <c r="B33" s="50"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="50"/>
-      <c r="H33" s="3"/>
+      <c r="A33" s="53"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="40"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
@@ -30211,16 +30233,16 @@
       <c r="Z33" s="3"/>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="28" t="s">
+      <c r="A34" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="31"/>
+      <c r="B34" s="54"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="54"/>
+      <c r="H34" s="55"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
@@ -30241,18 +30263,18 @@
       <c r="Z34" s="3"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="29" t="n">
+      <c r="A35" s="56" t="n">
         <v>1</v>
       </c>
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="55"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
@@ -30273,20 +30295,20 @@
       <c r="Z35" s="3"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="29"/>
-      <c r="B36" s="32" t="s">
+      <c r="A36" s="56"/>
+      <c r="B36" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="33" t="s">
+      <c r="C36" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="51" t="n">
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55" t="n">
         <v>10</v>
       </c>
-      <c r="H36" s="51" t="n">
+      <c r="H36" s="55" t="n">
         <v>10</v>
       </c>
       <c r="I36" s="3"/>
@@ -30309,20 +30331,20 @@
       <c r="Z36" s="3"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="29"/>
-      <c r="B37" s="32" t="s">
+      <c r="A37" s="56"/>
+      <c r="B37" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="C37" s="33" t="s">
+      <c r="C37" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31" t="n">
+      <c r="D37" s="56"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="H37" s="31" t="n">
+      <c r="H37" s="55" t="n">
         <v>0</v>
       </c>
       <c r="I37" s="3"/>
@@ -30345,18 +30367,18 @@
       <c r="Z37" s="3"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="29" t="n">
+      <c r="A38" s="56" t="n">
         <v>2</v>
       </c>
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="55"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
@@ -30377,20 +30399,20 @@
       <c r="Z38" s="3"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="29"/>
-      <c r="B39" s="32" t="s">
+      <c r="A39" s="56"/>
+      <c r="B39" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="33" t="s">
+      <c r="C39" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31" t="n">
+      <c r="D39" s="56"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="55" t="n">
         <v>10</v>
       </c>
-      <c r="H39" s="31" t="n">
+      <c r="H39" s="55" t="n">
         <v>10</v>
       </c>
       <c r="I39" s="3"/>
@@ -30413,20 +30435,20 @@
       <c r="Z39" s="3"/>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="29"/>
-      <c r="B40" s="32" t="s">
+      <c r="A40" s="56"/>
+      <c r="B40" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="C40" s="33" t="s">
+      <c r="C40" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="51" t="n">
+      <c r="D40" s="56"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="55"/>
+      <c r="G40" s="55" t="n">
         <v>10</v>
       </c>
-      <c r="H40" s="51" t="n">
+      <c r="H40" s="55" t="n">
         <v>10</v>
       </c>
       <c r="I40" s="3"/>
@@ -30449,18 +30471,18 @@
       <c r="Z40" s="3"/>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="52" t="n">
+      <c r="A41" s="56" t="n">
         <v>3</v>
       </c>
-      <c r="B41" s="52" t="s">
+      <c r="B41" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="C41" s="52"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="31"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="56"/>
+      <c r="E41" s="56"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="55"/>
+      <c r="H41" s="55"/>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
@@ -30481,20 +30503,20 @@
       <c r="Z41" s="3"/>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="52"/>
-      <c r="B42" s="53" t="s">
+      <c r="A42" s="56"/>
+      <c r="B42" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="C42" s="52" t="s">
+      <c r="C42" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31" t="n">
+      <c r="D42" s="56"/>
+      <c r="E42" s="56"/>
+      <c r="F42" s="55"/>
+      <c r="G42" s="60" t="n">
         <v>20</v>
       </c>
-      <c r="H42" s="31" t="n">
+      <c r="H42" s="55" t="n">
         <v>20</v>
       </c>
       <c r="I42" s="3"/>
@@ -30517,20 +30539,20 @@
       <c r="Z42" s="3"/>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="52"/>
-      <c r="B43" s="53" t="s">
+      <c r="A43" s="56"/>
+      <c r="B43" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="C43" s="52" t="s">
+      <c r="C43" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31" t="n">
+      <c r="D43" s="56"/>
+      <c r="E43" s="56"/>
+      <c r="F43" s="55"/>
+      <c r="G43" s="60" t="n">
         <v>10</v>
       </c>
-      <c r="H43" s="31" t="n">
+      <c r="H43" s="55" t="n">
         <v>10</v>
       </c>
       <c r="I43" s="3"/>
@@ -30553,14 +30575,14 @@
       <c r="Z43" s="3"/>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="50"/>
-      <c r="B44" s="50"/>
-      <c r="C44" s="50"/>
-      <c r="D44" s="50"/>
-      <c r="E44" s="50"/>
-      <c r="F44" s="50"/>
-      <c r="G44" s="50"/>
-      <c r="H44" s="3"/>
+      <c r="A44" s="53"/>
+      <c r="B44" s="53"/>
+      <c r="C44" s="53"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="53"/>
+      <c r="G44" s="53"/>
+      <c r="H44" s="40"/>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
@@ -30581,16 +30603,16 @@
       <c r="Z44" s="3"/>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="54" t="s">
+      <c r="A45" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="54"/>
-      <c r="C45" s="54"/>
-      <c r="D45" s="54"/>
-      <c r="E45" s="54"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="35"/>
+      <c r="B45" s="61"/>
+      <c r="C45" s="61"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="61"/>
+      <c r="F45" s="62"/>
+      <c r="G45" s="62"/>
+      <c r="H45" s="62"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
@@ -30611,20 +30633,20 @@
       <c r="Z45" s="3"/>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="55" t="n">
+      <c r="A46" s="63" t="n">
         <v>1</v>
       </c>
-      <c r="B46" s="56" t="s">
+      <c r="B46" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="C46" s="36"/>
-      <c r="D46" s="36"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="57" t="n">
+      <c r="C46" s="63"/>
+      <c r="D46" s="63"/>
+      <c r="E46" s="63"/>
+      <c r="F46" s="62"/>
+      <c r="G46" s="62" t="n">
         <v>40</v>
       </c>
-      <c r="H46" s="57" t="n">
+      <c r="H46" s="62" t="n">
         <v>40</v>
       </c>
       <c r="I46" s="3"/>
@@ -30647,20 +30669,20 @@
       <c r="Z46" s="3"/>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="55" t="n">
+      <c r="A47" s="63" t="n">
         <v>2</v>
       </c>
-      <c r="B47" s="56" t="s">
+      <c r="B47" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="C47" s="36"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="35"/>
-      <c r="G47" s="57" t="n">
+      <c r="C47" s="63"/>
+      <c r="D47" s="63"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="62"/>
+      <c r="G47" s="65" t="n">
         <v>30</v>
       </c>
-      <c r="H47" s="57" t="n">
+      <c r="H47" s="62" t="n">
         <v>30</v>
       </c>
       <c r="I47" s="3"/>
@@ -30683,18 +30705,18 @@
       <c r="Z47" s="3"/>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="55" t="n">
+      <c r="A48" s="63" t="n">
         <v>3</v>
       </c>
-      <c r="B48" s="56" t="s">
+      <c r="B48" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="C48" s="36"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="35"/>
-      <c r="G48" s="57"/>
-      <c r="H48" s="57" t="n">
+      <c r="C48" s="63"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="63"/>
+      <c r="F48" s="62"/>
+      <c r="G48" s="62"/>
+      <c r="H48" s="62" t="n">
         <v>35</v>
       </c>
       <c r="I48" s="3"/>
@@ -30717,14 +30739,14 @@
       <c r="Z48" s="3"/>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="50"/>
-      <c r="B49" s="50"/>
-      <c r="C49" s="50"/>
-      <c r="D49" s="50"/>
-      <c r="E49" s="50"/>
-      <c r="F49" s="50"/>
-      <c r="G49" s="50"/>
-      <c r="H49" s="3"/>
+      <c r="A49" s="53"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="53"/>
+      <c r="G49" s="53"/>
+      <c r="H49" s="40"/>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
@@ -30745,16 +30767,16 @@
       <c r="Z49" s="3"/>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="38" t="s">
+      <c r="A50" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="B50" s="38"/>
-      <c r="C50" s="38"/>
-      <c r="D50" s="38"/>
-      <c r="E50" s="38"/>
-      <c r="F50" s="38"/>
-      <c r="G50" s="38"/>
-      <c r="H50" s="3"/>
+      <c r="B50" s="66"/>
+      <c r="C50" s="66"/>
+      <c r="D50" s="66"/>
+      <c r="E50" s="66"/>
+      <c r="F50" s="66"/>
+      <c r="G50" s="66"/>
+      <c r="H50" s="40"/>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
@@ -30775,16 +30797,16 @@
       <c r="Z50" s="3"/>
     </row>
     <row r="51" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="39" t="s">
+      <c r="A51" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="B51" s="39"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="39"/>
-      <c r="E51" s="39"/>
-      <c r="F51" s="39"/>
-      <c r="G51" s="39"/>
-      <c r="H51" s="3"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="41"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="40"/>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
